--- a/docs/communication/modbus.xlsx
+++ b/docs/communication/modbus.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="0" windowWidth="22365" windowHeight="10320"/>
+    <workbookView xWindow="1635" yWindow="0" windowWidth="22365" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LC-RC" sheetId="1" r:id="rId1"/>
+    <sheet name="RC register map" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>1. Ping</t>
   </si>
@@ -114,6 +115,150 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>status reg</t>
+  </si>
+  <si>
+    <t>write reg</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Status bits reflects the current state of the device. Those registers cannot be written but can be read at any time.</t>
+  </si>
+  <si>
+    <t>One can write those bits in order to program the device. Although this register is read-write accessed, its state when read does not reflect the current state, but the value that was written to it. In order to obtain current device state Status register should be read.</t>
+  </si>
+  <si>
+    <t>The register map of Relay controller is accessed word wise. It means each register is 16 bit wide and by insreasing the address by 1, one is shifting by 16 bit, not 8. Also, the way of accesing the data is not relevant. If one wants to obtain the value of bit Y, of register X, any known modbus command can be used, for example either Read Holding Registers or Read Coils.</t>
+  </si>
+  <si>
+    <t>Status register (0x00), read only</t>
+  </si>
+  <si>
+    <t>Bit 15</t>
+  </si>
+  <si>
+    <t>Bit 14</t>
+  </si>
+  <si>
+    <t>Bit 13</t>
+  </si>
+  <si>
+    <t>Bit 12</t>
+  </si>
+  <si>
+    <t>Bit 11</t>
+  </si>
+  <si>
+    <t>Bit 10</t>
+  </si>
+  <si>
+    <t>Bit 9</t>
+  </si>
+  <si>
+    <t>Bit 8</t>
+  </si>
+  <si>
+    <t>Bit 7</t>
+  </si>
+  <si>
+    <t>Bit 6</t>
+  </si>
+  <si>
+    <t>Bit 5</t>
+  </si>
+  <si>
+    <t>Bit 4</t>
+  </si>
+  <si>
+    <t>Bit 3</t>
+  </si>
+  <si>
+    <t>Bit 2</t>
+  </si>
+  <si>
+    <t>Bit 1</t>
+  </si>
+  <si>
+    <t>Bit 0</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0- Off, 1- On. </t>
+  </si>
+  <si>
+    <t>PS (Power source)</t>
+  </si>
+  <si>
+    <t>0- Power grid, 1- battery</t>
+  </si>
+  <si>
+    <t>BB (Blackout behaviour)</t>
+  </si>
+  <si>
+    <t>0-Relay off, 1- Relay On</t>
+  </si>
+  <si>
+    <t>Setting register (0x01), read/ write</t>
+  </si>
+  <si>
+    <t>RS (Relay state)</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>64 byte user string. One can use it to create a unique name for the device.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>96 bit (12 byte) unique device ID</t>
+  </si>
+  <si>
+    <t>0x02 - 0x07</t>
+  </si>
+  <si>
+    <t>0x08 - 0x28</t>
   </si>
 </sst>
 </file>
@@ -148,17 +293,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -168,8 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,11 +358,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -228,6 +435,41 @@
     <tableColumn id="14" name="bit 2"/>
     <tableColumn id="15" name="bit 1"/>
     <tableColumn id="16" name="bit 0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A8:D20" totalsRowShown="0">
+  <autoFilter ref="A8:D20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Register"/>
+    <tableColumn id="2" name="Address"/>
+    <tableColumn id="4" name="Access"/>
+    <tableColumn id="3" name="Description" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="W8:X14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="W8:X14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Bit"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela79" displayName="Tabela79" ref="W25:X31" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="W25:X31"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Bit"/>
+    <tableColumn id="2" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -499,10 +741,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,91 +755,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -680,6 +922,14 @@
       </c>
       <c r="C10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -697,4 +947,365 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="122.85546875" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" customWidth="1"/>
+    <col min="24" max="24" width="62.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>67</v>
+      </c>
+      <c r="X11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="24" spans="4:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" t="s">
+        <v>70</v>
+      </c>
+      <c r="X26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="W27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F7:U7"/>
+    <mergeCell ref="F24:U24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>